--- a/allClusters.xlsx
+++ b/allClusters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubiquinones/Documents/MATLAB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C135CDF2-DE43-994E-A12D-43677C054005}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616333DA-0E24-3649-B11A-EAF14A098DD3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2k" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
     <sheet name="clusteringGraphs" sheetId="6" r:id="rId7"/>
     <sheet name="Ratio Accuracy" sheetId="8" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
@@ -1876,7 +1873,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1907,6 +1904,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2080,19 +2079,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1433270</c:v>
+                  <c:v>1181624</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>927282</c:v>
+                  <c:v>887206</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>927282</c:v>
+                  <c:v>833890</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>726751</c:v>
+                  <c:v>833865</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>646878</c:v>
+                  <c:v>719647</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2160,19 +2159,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1733479</c:v>
+                  <c:v>1958257</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1458265</c:v>
+                  <c:v>1638260</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1385115</c:v>
+                  <c:v>1628647</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1385090</c:v>
+                  <c:v>1628647</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1244158</c:v>
+                  <c:v>1550849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2619,19 +2618,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1283829</c:v>
+                  <c:v>793673</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1139268</c:v>
+                  <c:v>1092752</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>715361</c:v>
+                  <c:v>1092752</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1042530</c:v>
+                  <c:v>698463</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1042530</c:v>
+                  <c:v>890038</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4944,19 +4943,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>94.745270183257659</c:v>
+                  <c:v>96.930147058823536</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94.137834821428569</c:v>
+                  <c:v>96.426024955436716</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93.301339285714292</c:v>
+                  <c:v>96.426024955436716</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.301339285714292</c:v>
+                  <c:v>96.426024955436716</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92.783482142857139</c:v>
+                  <c:v>95.865641711229941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5068,19 +5067,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.2547298167423477</c:v>
+                  <c:v>3.0698529411764706</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6104910714285712</c:v>
+                  <c:v>1.8321078431372551</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4017857142857144</c:v>
+                  <c:v>1.008801247771836</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4017857142857144</c:v>
+                  <c:v>1.008801247771836</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5909598214285714</c:v>
+                  <c:v>0.58545008912655971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5205,16 +5204,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2516741071428572</c:v>
+                  <c:v>1.7418672014260248</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8850446428571428</c:v>
+                  <c:v>2.0059046345811051</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8850446428571428</c:v>
+                  <c:v>2.0053475935828877</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48828125</c:v>
+                  <c:v>1.0249554367201426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5352,13 +5351,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4118303571428572</c:v>
+                  <c:v>0.55926916221033862</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4112723214285712</c:v>
+                  <c:v>0.55926916221033862</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0133928571428572</c:v>
+                  <c:v>1.3524955436720143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5519,10 +5518,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5803571428571425E-4</c:v>
+                  <c:v>5.5704099821746883E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7064732142857142</c:v>
+                  <c:v>0.58656417112299464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5686,7 +5685,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4174107142857142</c:v>
+                  <c:v>0.5848930481283422</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7040,19 +7039,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>95.98930481283422</c:v>
+                  <c:v>95.978573943560349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95.043449197860966</c:v>
+                  <c:v>94.862410873440282</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97.09579025403346</c:v>
+                  <c:v>97.34529818657694</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95.575423351158648</c:v>
+                  <c:v>95.716911764705884</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.674131016042779</c:v>
+                  <c:v>95.614416221033878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7164,19 +7163,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.0106951871657754</c:v>
+                  <c:v>4.0214260564396493</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2549019607843137</c:v>
+                  <c:v>3.0821078431372548</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1595334702816495</c:v>
+                  <c:v>1.3743718735305948</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1413770053475936</c:v>
+                  <c:v>1.3513814616755793</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1524064171122994</c:v>
+                  <c:v>0.64393939393939392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7301,16 +7300,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7016488413547237</c:v>
+                  <c:v>2.0554812834224596</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.744676275684883</c:v>
+                  <c:v>1.280329939892475</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7168003565062386</c:v>
+                  <c:v>1.2589126559714794</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.73807932263814613</c:v>
+                  <c:v>1.4399509803921569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7461,10 +7460,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5658422459893049</c:v>
+                  <c:v>1.6722370766488415</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4342691622103385</c:v>
+                  <c:v>0.82386363636363624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7493,7 +7492,6 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:delete val="1"/>
-            <c:extLst/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -7537,7 +7535,7 @@
                   <c:v>5.5704099821746883E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5704099821746883E-4</c:v>
+                  <c:v>0.39661319073083778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7566,7 +7564,6 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:delete val="1"/>
-            <c:extLst/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -7610,7 +7607,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5704099821746883E-4</c:v>
+                  <c:v>1.081216577540107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7944,19 +7941,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>96.15234375</c:v>
+                  <c:v>93.747214795008915</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95.260867882594241</c:v>
+                  <c:v>95.845031194295899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.02093930288126</c:v>
+                  <c:v>95.845565093388444</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97.305968629048692</c:v>
+                  <c:v>93.772016502258168</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.961495535714278</c:v>
+                  <c:v>95.281305704099822</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8068,19 +8065,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.84765625</c:v>
+                  <c:v>6.2527852049910875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0931351139171923</c:v>
+                  <c:v>1.6945187165775402</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2574045784440453</c:v>
+                  <c:v>1.6945281557940943</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4819718883683031</c:v>
+                  <c:v>6.121355239578623</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4614955357142858</c:v>
+                  <c:v>2.0510249554367204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8205,16 +8202,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6459970034885587</c:v>
+                  <c:v>2.4604500891265597</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7216561186747024</c:v>
+                  <c:v>2.4599067508174621</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2114936284828319</c:v>
+                  <c:v>0.10606999503145811</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1947544642857144</c:v>
+                  <c:v>0.68850267379679142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8378,7 +8375,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3811383928571428</c:v>
+                  <c:v>0.48963903743315507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8407,7 +8404,6 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:delete val="1"/>
-            <c:extLst/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -8448,10 +8444,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6585410017880988E-4</c:v>
+                  <c:v>5.5826313174451648E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5803571428571425E-4</c:v>
+                  <c:v>1.4889705882352939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8480,7 +8476,6 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:delete val="1"/>
-            <c:extLst/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -8524,7 +8519,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5803571428571425E-4</c:v>
+                  <c:v>5.5704099821746883E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14109,14 +14104,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14131,8 +14126,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2895600" y="2908300"/>
-          <a:ext cx="304800" cy="292100"/>
+          <a:off x="2904067" y="3166533"/>
+          <a:ext cx="304800" cy="296333"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -14174,15 +14169,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>804333</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>156633</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>220133</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>67732</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14197,8 +14192,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2921000" y="3403600"/>
-          <a:ext cx="304800" cy="292100"/>
+          <a:off x="2921000" y="3661833"/>
+          <a:ext cx="304800" cy="300566"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -14240,15 +14235,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>770466</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>42332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>186266</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>143933</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14263,8 +14258,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2921000" y="3695700"/>
-          <a:ext cx="304800" cy="292100"/>
+          <a:off x="2887133" y="3936999"/>
+          <a:ext cx="304800" cy="296334"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -14374,13 +14369,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>131234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>42334</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14395,8 +14390,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8229600" y="3162300"/>
-          <a:ext cx="304800" cy="292100"/>
+          <a:off x="8246533" y="3246967"/>
+          <a:ext cx="304800" cy="300567"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -15174,63 +15169,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="totalSumOfDistances"/>
-      <sheetName val="RatioAccuracy"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>RGB</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>RGInfrared</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>July17.tiff</v>
-          </cell>
-          <cell r="B2">
-            <v>0.47399999999999998</v>
-          </cell>
-          <cell r="C2">
-            <v>0.93600000000000005</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>August19.tiff</v>
-          </cell>
-          <cell r="B3">
-            <v>0.48299999999999998</v>
-          </cell>
-          <cell r="C3">
-            <v>0.73499999999999999</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>September11.tiff</v>
-          </cell>
-          <cell r="B4">
-            <v>0.435</v>
-          </cell>
-          <cell r="C4">
-            <v>0.92600000000000005</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -15530,8 +15468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I517"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16065,60 +16003,60 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="18" t="s">
+      <c r="A19" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="31">
         <v>1433270</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="31">
         <v>169216</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="31">
         <v>9984</v>
       </c>
-      <c r="F19" s="19">
-        <v>0</v>
-      </c>
-      <c r="G19" s="19">
-        <v>0</v>
-      </c>
-      <c r="H19" s="19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="19">
+      <c r="F19" s="31">
+        <v>0</v>
+      </c>
+      <c r="G19" s="31">
+        <v>0</v>
+      </c>
+      <c r="H19" s="31">
+        <v>0</v>
+      </c>
+      <c r="I19" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="19">
         <v>1181624</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="19">
         <v>174009</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="19">
         <v>5511</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
+      <c r="F20" s="19">
+        <v>0</v>
+      </c>
+      <c r="G20" s="19">
+        <v>0</v>
+      </c>
+      <c r="H20" s="19">
+        <v>0</v>
+      </c>
+      <c r="I20" s="19">
         <v>0</v>
       </c>
     </row>
@@ -16355,31 +16293,31 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="20" t="s">
+      <c r="A29" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="31">
         <v>1733479</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="31">
         <v>172320</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="31">
         <v>7200</v>
       </c>
-      <c r="F29" s="21">
-        <v>0</v>
-      </c>
-      <c r="G29" s="21">
-        <v>0</v>
-      </c>
-      <c r="H29" s="21">
-        <v>0</v>
-      </c>
-      <c r="I29" s="21">
+      <c r="F29" s="31">
+        <v>0</v>
+      </c>
+      <c r="G29" s="31">
+        <v>0</v>
+      </c>
+      <c r="H29" s="31">
+        <v>0</v>
+      </c>
+      <c r="I29" s="31">
         <v>0</v>
       </c>
     </row>
@@ -16413,31 +16351,31 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="21">
         <v>1958257</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="21">
         <v>172553</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="21">
         <v>6967</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
+      <c r="F31" s="21">
+        <v>0</v>
+      </c>
+      <c r="G31" s="21">
+        <v>0</v>
+      </c>
+      <c r="H31" s="21">
+        <v>0</v>
+      </c>
+      <c r="I31" s="21">
         <v>0</v>
       </c>
     </row>
@@ -17225,60 +17163,60 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="C59" s="21">
+      <c r="C59" s="31">
         <v>1283829</v>
       </c>
-      <c r="D59" s="21">
+      <c r="D59" s="31">
         <v>172305</v>
       </c>
-      <c r="E59" s="21">
+      <c r="E59" s="31">
         <v>6895</v>
       </c>
-      <c r="F59" s="21">
-        <v>0</v>
-      </c>
-      <c r="G59" s="21">
-        <v>0</v>
-      </c>
-      <c r="H59" s="21">
-        <v>0</v>
-      </c>
-      <c r="I59" s="21">
+      <c r="F59" s="31">
+        <v>0</v>
+      </c>
+      <c r="G59" s="31">
+        <v>0</v>
+      </c>
+      <c r="H59" s="31">
+        <v>0</v>
+      </c>
+      <c r="I59" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="21">
         <v>793673</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="21">
         <v>168295</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="21">
         <v>11225</v>
       </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
+      <c r="F60" s="21">
+        <v>0</v>
+      </c>
+      <c r="G60" s="21">
+        <v>0</v>
+      </c>
+      <c r="H60" s="21">
+        <v>0</v>
+      </c>
+      <c r="I60" s="21">
         <v>0</v>
       </c>
     </row>
@@ -90600,8 +90538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B0AE4C-185C-1444-8D2F-0C8BE4DBB7E4}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -90699,24 +90637,24 @@
         <v>561</v>
       </c>
       <c r="C5">
-        <f>'2k'!C19</f>
-        <v>1433270</v>
+        <f>'2k'!C20</f>
+        <v>1181624</v>
       </c>
       <c r="D5">
-        <f>'3k'!C19</f>
-        <v>927282</v>
+        <f>'3k'!C20</f>
+        <v>887206</v>
       </c>
       <c r="E5">
-        <f>'3k'!C19</f>
-        <v>927282</v>
+        <f>'4k'!C20</f>
+        <v>833890</v>
       </c>
       <c r="F5">
-        <f>'5k'!C19</f>
-        <v>726751</v>
+        <f>'5k'!C20</f>
+        <v>833865</v>
       </c>
       <c r="G5">
-        <f>'6k'!C19</f>
-        <v>646878</v>
+        <f>'6k'!C20</f>
+        <v>719647</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -90755,24 +90693,24 @@
         <v>562</v>
       </c>
       <c r="C7">
-        <f>'2k'!C29</f>
-        <v>1733479</v>
+        <f>'2k'!C31</f>
+        <v>1958257</v>
       </c>
       <c r="D7">
-        <f>'3k'!C29</f>
-        <v>1458265</v>
+        <f>'3k'!C31</f>
+        <v>1638260</v>
       </c>
       <c r="E7">
-        <f>'4k'!C29</f>
-        <v>1385115</v>
+        <f>'4k'!C31</f>
+        <v>1628647</v>
       </c>
       <c r="F7">
-        <f>'5k'!C29</f>
-        <v>1385090</v>
+        <f>'5k'!C31</f>
+        <v>1628647</v>
       </c>
       <c r="G7">
-        <f>'6k'!C29</f>
-        <v>1244158</v>
+        <f>'6k'!C31</f>
+        <v>1550849</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -90783,24 +90721,24 @@
         <v>562</v>
       </c>
       <c r="C8">
-        <f>'2k'!C59</f>
-        <v>1283829</v>
+        <f>'2k'!C60</f>
+        <v>793673</v>
       </c>
       <c r="D8">
-        <f>'3k'!C59</f>
-        <v>1139268</v>
+        <f>'3k'!C60</f>
+        <v>1092752</v>
       </c>
       <c r="E8">
-        <f>'4k'!C59</f>
-        <v>715361</v>
+        <f>'4k'!C60</f>
+        <v>1092752</v>
       </c>
       <c r="F8">
-        <f>'5k'!C59</f>
-        <v>1042530</v>
+        <f>'5k'!C60</f>
+        <v>698463</v>
       </c>
       <c r="G8">
-        <f>'6k'!C59</f>
-        <v>1042530</v>
+        <f>'6k'!C60</f>
+        <v>890038</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -90842,8 +90780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96B29F6-21AB-2841-89F4-180D527FDBA9}">
   <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="85" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" workbookViewId="0">
+      <selection activeCell="AC23" sqref="AC23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -91005,24 +90943,24 @@
         <v>167440</v>
       </c>
       <c r="M3">
-        <f>'2k'!D19</f>
-        <v>169216</v>
+        <f>'2k'!D20</f>
+        <v>174009</v>
       </c>
       <c r="N3">
-        <f>'3k'!D19</f>
-        <v>168695</v>
+        <f>'3k'!D20</f>
+        <v>173104</v>
       </c>
       <c r="O3">
-        <f>'4k'!D19</f>
-        <v>167196</v>
+        <f>'4k'!D20</f>
+        <v>173104</v>
       </c>
       <c r="P3">
-        <f>'5k'!D19</f>
-        <v>167196</v>
+        <f>'5k'!D20</f>
+        <v>173104</v>
       </c>
       <c r="Q3">
-        <f>'6k'!D19</f>
-        <v>166268</v>
+        <f>'6k'!D20</f>
+        <v>172098</v>
       </c>
       <c r="S3">
         <f>'2k'!D49</f>
@@ -91045,44 +90983,44 @@
         <v>169810</v>
       </c>
       <c r="Y3">
-        <f>'2k'!D29</f>
-        <v>172320</v>
+        <f>'2k'!D310</f>
+        <v>166280</v>
       </c>
       <c r="Z3">
-        <f>'3k'!D29</f>
-        <v>170622</v>
+        <f>'3k'!D31</f>
+        <v>170297</v>
       </c>
       <c r="AA3">
-        <f>'4k'!D29</f>
-        <v>171577</v>
+        <f>'4k'!D31</f>
+        <v>171831</v>
       </c>
       <c r="AB3">
-        <f>'5k'!D29</f>
-        <v>171577</v>
+        <f>'5k'!D31</f>
+        <v>171831</v>
       </c>
       <c r="AC3">
-        <f>'6k'!D29</f>
-        <v>169959</v>
+        <f>'6k'!D31</f>
+        <v>171647</v>
       </c>
       <c r="AE3">
-        <f>'2k'!D59</f>
-        <v>172305</v>
+        <f>'2k'!D60</f>
+        <v>168295</v>
       </c>
       <c r="AF3">
-        <f>'3k'!D59</f>
-        <v>172305</v>
+        <f>'3k'!D60</f>
+        <v>172061</v>
       </c>
       <c r="AG3">
-        <f>'4k'!D59</f>
-        <v>168022</v>
+        <f>'4k'!D60</f>
+        <v>172061</v>
       </c>
       <c r="AH3">
-        <f>'5k'!D59</f>
-        <v>171963</v>
+        <f>'5k'!D60</f>
+        <v>167971</v>
       </c>
       <c r="AI3">
-        <f>'6k'!D59</f>
-        <v>171963</v>
+        <f>'6k'!D60</f>
+        <v>171049</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
@@ -91127,24 +91065,24 @@
         <v>4019</v>
       </c>
       <c r="M4">
-        <f>'2k'!E9</f>
-        <v>9385</v>
+        <f>'2k'!E20</f>
+        <v>5511</v>
       </c>
       <c r="N4">
-        <f>'3k'!E19</f>
-        <v>6470</v>
+        <f>'3k'!E20</f>
+        <v>3289</v>
       </c>
       <c r="O4">
-        <f>'4k'!E19</f>
-        <v>4304</v>
+        <f>'4k'!E20</f>
+        <v>1811</v>
       </c>
       <c r="P4">
-        <f>'5k'!E19</f>
-        <v>4304</v>
+        <f>'5k'!E20</f>
+        <v>1811</v>
       </c>
       <c r="Q4">
-        <f>'6k'!E19</f>
-        <v>2851</v>
+        <f>'6k'!E20</f>
+        <v>1051</v>
       </c>
       <c r="S4">
         <f>'2k'!E49</f>
@@ -91167,44 +91105,44 @@
         <v>676</v>
       </c>
       <c r="Y4">
-        <f>'2k'!E29</f>
-        <v>7200</v>
+        <f>'2k'!E31</f>
+        <v>6967</v>
       </c>
       <c r="Z4">
-        <f>'3k'!E29</f>
-        <v>4048</v>
+        <f>'3k'!E31</f>
+        <v>5533</v>
       </c>
       <c r="AA4">
-        <f>'4k'!E29</f>
-        <v>2049</v>
+        <f>'4k'!E31</f>
+        <v>2426</v>
       </c>
       <c r="AB4">
-        <f>'5k'!E29</f>
-        <v>2049</v>
+        <f>'5k'!E31</f>
+        <v>2426</v>
       </c>
       <c r="AC4">
-        <f>'6k'!E29</f>
-        <v>3864</v>
+        <f>'6k'!E31</f>
+        <v>1156</v>
       </c>
       <c r="AE4">
-        <f>'2k'!E59</f>
-        <v>6895</v>
+        <f>'2k'!E60</f>
+        <v>11225</v>
       </c>
       <c r="AF4">
-        <f>'3k'!E59</f>
-        <v>3786</v>
+        <f>'3k'!E60</f>
+        <v>3042</v>
       </c>
       <c r="AG4">
-        <f>'4k'!E59</f>
-        <v>460</v>
+        <f>'4k'!E60</f>
+        <v>3042</v>
       </c>
       <c r="AH4">
-        <f>'5k'!E59</f>
-        <v>2619</v>
+        <f>'5k'!E60</f>
+        <v>10965</v>
       </c>
       <c r="AI4">
-        <f>'6k'!E59</f>
-        <v>2619</v>
+        <f>'6k'!E60</f>
+        <v>3682</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
@@ -91249,24 +91187,24 @@
         <v>2465</v>
       </c>
       <c r="M5">
-        <f>'2k'!F19</f>
+        <f>'2k'!F20</f>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>'3k'!F19</f>
-        <v>4035</v>
+        <f>'3k'!F20</f>
+        <v>3127</v>
       </c>
       <c r="O5">
-        <f>'4k'!F19</f>
-        <v>3378</v>
+        <f>'4k'!F20</f>
+        <v>3601</v>
       </c>
       <c r="P5">
-        <f>'5k'!F19</f>
-        <v>3378</v>
+        <f>'5k'!F20</f>
+        <v>3600</v>
       </c>
       <c r="Q5">
-        <f>'6k'!F19</f>
-        <v>875</v>
+        <f>'6k'!F20</f>
+        <v>1840</v>
       </c>
       <c r="S5">
         <f>'2k'!F49</f>
@@ -91289,44 +91227,44 @@
         <v>1434</v>
       </c>
       <c r="Y5">
-        <f>'2k'!F29</f>
+        <f>'2k'!F31</f>
         <v>0</v>
       </c>
       <c r="Z5">
-        <f>'3k'!F29</f>
-        <v>4850</v>
+        <f>'3k'!F31</f>
+        <v>3690</v>
       </c>
       <c r="AA5">
-        <f>'4k'!F29</f>
-        <v>3083</v>
+        <f>'4k'!F31</f>
+        <v>2260</v>
       </c>
       <c r="AB5">
-        <f>'5k'!F29</f>
-        <v>3082</v>
+        <f>'5k'!F31</f>
+        <v>2260</v>
       </c>
       <c r="AC5">
-        <f>'6k'!F29</f>
-        <v>1325</v>
+        <f>'6k'!F31</f>
+        <v>2585</v>
       </c>
       <c r="AE5">
-        <f>'2k'!F59</f>
+        <f>'2k'!F60</f>
         <v>0</v>
       </c>
       <c r="AF5">
-        <f>'3k'!F9</f>
-        <v>4786</v>
+        <f>'3k'!F60</f>
+        <v>4417</v>
       </c>
       <c r="AG5">
-        <f>'4k'!F59</f>
-        <v>10225</v>
+        <f>'4k'!F60</f>
+        <v>4416</v>
       </c>
       <c r="AH5">
-        <f>'5k'!F59</f>
-        <v>2141</v>
+        <f>'5k'!F60</f>
+        <v>190</v>
       </c>
       <c r="AI5">
-        <f>'6k'!F59</f>
-        <v>2141</v>
+        <f>'6k'!F60</f>
+        <v>1236</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
@@ -91371,24 +91309,24 @@
         <v>3011</v>
       </c>
       <c r="M6">
-        <f>'2k'!G19</f>
+        <f>'2k'!G20</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>'3k'!G19</f>
+        <f>'3k'!G20</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>'4k'!G19</f>
-        <v>4322</v>
+        <f>'4k'!G20</f>
+        <v>1004</v>
       </c>
       <c r="P6">
-        <f>'5k'!G19</f>
-        <v>4321</v>
+        <f>'5k'!G20</f>
+        <v>1004</v>
       </c>
       <c r="Q6">
-        <f>'6k'!G19</f>
-        <v>3608</v>
+        <f>'6k'!G20</f>
+        <v>2428</v>
       </c>
       <c r="S6">
         <f>'2k'!G49</f>
@@ -91411,44 +91349,44 @@
         <v>2466</v>
       </c>
       <c r="Y6">
-        <f>'2k'!G29</f>
+        <f>'2k'!G31</f>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f>'3k'!G29</f>
+        <f>'3k'!G31</f>
         <v>0</v>
       </c>
       <c r="AA6">
-        <f>'4k'!SG29</f>
+        <f>'4k'!SG31</f>
         <v>0</v>
       </c>
       <c r="AB6">
-        <f>'5k'!G29</f>
-        <v>2811</v>
+        <f>'5k'!G31</f>
+        <v>3002</v>
       </c>
       <c r="AC6">
-        <f>'6k'!G29</f>
-        <v>4370</v>
+        <f>'6k'!G31</f>
+        <v>1479</v>
       </c>
       <c r="AE6">
-        <f>'2k'!G59</f>
+        <f>'2k'!G60</f>
         <v>0</v>
       </c>
       <c r="AF6">
-        <f>'3k'!G59</f>
+        <f>'3k'!G60</f>
         <v>0</v>
       </c>
       <c r="AG6">
-        <f>'4k'!SG59</f>
+        <f>'4k'!SG60</f>
         <v>0</v>
       </c>
       <c r="AH6">
-        <f>'5k'!SG59</f>
+        <f>'5k'!SG60</f>
         <v>0</v>
       </c>
       <c r="AI6">
-        <f>'6k'!G59</f>
-        <v>2475</v>
+        <f>'6k'!G60</f>
+        <v>879</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
@@ -91493,24 +91431,24 @@
         <v>2584</v>
       </c>
       <c r="M7">
-        <f>'2k'!H19</f>
+        <f>'2k'!H20</f>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>'3k'!H19</f>
+        <f>'3k'!H20</f>
         <v>0</v>
       </c>
       <c r="O7">
-        <f>'4k'!H19</f>
+        <f>'4k'!H20</f>
         <v>0</v>
       </c>
       <c r="P7">
-        <f>'5k'!H19</f>
+        <f>'5k'!H20</f>
         <v>1</v>
       </c>
       <c r="Q7">
-        <f>'6k'!H19</f>
-        <v>3058</v>
+        <f>'6k'!H20</f>
+        <v>1053</v>
       </c>
       <c r="S7">
         <f>'2k'!H49</f>
@@ -91533,44 +91471,44 @@
         <v>1523</v>
       </c>
       <c r="Y7">
-        <f>'2k'!H29</f>
+        <f>'2k'!H31</f>
         <v>0</v>
       </c>
       <c r="Z7">
-        <f>'3k'!H29</f>
+        <f>'3k'!H31</f>
         <v>0</v>
       </c>
       <c r="AA7">
-        <f>'4k'!H29</f>
+        <f>'4k'!H31</f>
         <v>0</v>
       </c>
       <c r="AB7">
-        <f>'5k'!H29</f>
+        <f>'5k'!H31</f>
         <v>1</v>
       </c>
       <c r="AC7">
-        <f>'6k'!H29</f>
-        <v>1</v>
+        <f>'6k'!H31</f>
+        <v>712</v>
       </c>
       <c r="AE7">
-        <f>'2k'!H59</f>
+        <f>'2k'!H60</f>
         <v>0</v>
       </c>
       <c r="AF7">
-        <f>'3k'!H59</f>
+        <f>'3k'!H60</f>
         <v>0</v>
       </c>
       <c r="AG7">
-        <f>'4k'!H5</f>
+        <f>'4k'!H60</f>
         <v>0</v>
       </c>
       <c r="AH7">
-        <f>'5k'!H59</f>
+        <f>'5k'!H60</f>
         <v>1</v>
       </c>
       <c r="AI7">
-        <f>'6k'!H59</f>
-        <v>1</v>
+        <f>'6k'!H60</f>
+        <v>2673</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
@@ -91615,24 +91553,24 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <f>'2k'!I19</f>
+        <f>'2k'!I20</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>'3k'!I19</f>
+        <f>'3k'!I20</f>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>'4k'!I19</f>
+        <f>'4k'!I20</f>
         <v>0</v>
       </c>
       <c r="P8">
-        <f>'5k'!I19</f>
+        <f>'5k'!I20</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>'6k'!I19</f>
-        <v>2540</v>
+        <f>'6k'!I20</f>
+        <v>1050</v>
       </c>
       <c r="S8">
         <f>'2k'!I49</f>
@@ -91655,43 +91593,43 @@
         <v>3611</v>
       </c>
       <c r="Y8">
-        <f>'2k'!I29</f>
+        <f>'2k'!I31</f>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f>'3k'!I29</f>
+        <f>'3k'!I3</f>
         <v>0</v>
       </c>
       <c r="AA8">
-        <f>'4k'!I29</f>
+        <f>'4k'!I31</f>
         <v>0</v>
       </c>
       <c r="AB8">
-        <f>'5k'!I29</f>
+        <f>'5k'!I31</f>
         <v>0</v>
       </c>
       <c r="AC8">
-        <f>'6k'!I29</f>
-        <v>1</v>
+        <f>'6k'!I31</f>
+        <v>1941</v>
       </c>
       <c r="AE8">
-        <f>'2k'!I59</f>
+        <f>'2k'!I60</f>
         <v>0</v>
       </c>
       <c r="AF8">
-        <f>'3k'!I59</f>
+        <f>'3k'!I60</f>
         <v>0</v>
       </c>
       <c r="AG8">
-        <f>'4k'!I59</f>
+        <f>'4k'!I60</f>
         <v>0</v>
       </c>
       <c r="AH8">
-        <f>'5k'!I59</f>
+        <f>'5k'!I60</f>
         <v>0</v>
       </c>
       <c r="AI8">
-        <f>'6k'!I59</f>
+        <f>'6k'!I60</f>
         <v>1</v>
       </c>
     </row>
@@ -91817,7 +91755,7 @@
         <v>93.51659982174688</v>
       </c>
       <c r="C13" s="25">
-        <f t="shared" ref="B13:E13" si="0">C3/SUM(C3:C8)*100</f>
+        <f t="shared" ref="C13:E13" si="0">C3/SUM(C3:C8)*100</f>
         <v>93.26760249554367</v>
       </c>
       <c r="D13" s="25">
@@ -91850,23 +91788,23 @@
       </c>
       <c r="M13" s="25">
         <f>M3/SUM(M3:M8)*100</f>
-        <v>94.745270183257659</v>
+        <v>96.930147058823536</v>
       </c>
       <c r="N13" s="25">
         <f t="shared" ref="N13:Q13" si="2">N3/SUM(N3:N8)*100</f>
-        <v>94.137834821428569</v>
+        <v>96.426024955436716</v>
       </c>
       <c r="O13" s="25">
         <f t="shared" si="2"/>
-        <v>93.301339285714292</v>
+        <v>96.426024955436716</v>
       </c>
       <c r="P13" s="25">
         <f t="shared" si="2"/>
-        <v>93.301339285714292</v>
+        <v>96.426024955436716</v>
       </c>
       <c r="Q13" s="25">
         <f t="shared" si="2"/>
-        <v>92.783482142857139</v>
+        <v>95.865641711229941</v>
       </c>
       <c r="S13" s="25">
         <f>S3/SUM(S3:S8)*100</f>
@@ -91890,43 +91828,43 @@
       </c>
       <c r="Y13" s="25">
         <f>Y3/SUM(Y3:Y8)*100</f>
-        <v>95.98930481283422</v>
+        <v>95.978573943560349</v>
       </c>
       <c r="Z13" s="25">
         <f>Z3/SUM(Z3:Z8)*100</f>
-        <v>95.043449197860966</v>
+        <v>94.862410873440282</v>
       </c>
       <c r="AA13" s="25">
-        <f t="shared" ref="Z13:AC13" si="4">AA3/SUM(AA3:AA8)*100</f>
-        <v>97.09579025403346</v>
+        <f t="shared" ref="AA13:AB13" si="4">AA3/SUM(AA3:AA8)*100</f>
+        <v>97.34529818657694</v>
       </c>
       <c r="AB13" s="25">
         <f t="shared" si="4"/>
-        <v>95.575423351158648</v>
+        <v>95.716911764705884</v>
       </c>
       <c r="AC13" s="25">
         <f>AC3/SUM(AC3:AC8)*100</f>
-        <v>94.674131016042779</v>
+        <v>95.614416221033878</v>
       </c>
       <c r="AE13" s="25">
         <f>AE3/SUM(AE3:AE8)*100</f>
-        <v>96.15234375</v>
+        <v>93.747214795008915</v>
       </c>
       <c r="AF13" s="25">
         <f t="shared" ref="AF13:AI13" si="5">AF3/SUM(AF3:AF8)*100</f>
-        <v>95.260867882594241</v>
+        <v>95.845031194295899</v>
       </c>
       <c r="AG13" s="25">
         <f t="shared" si="5"/>
-        <v>94.02093930288126</v>
+        <v>95.845565093388444</v>
       </c>
       <c r="AH13" s="25">
         <f t="shared" si="5"/>
-        <v>97.305968629048692</v>
+        <v>93.772016502258168</v>
       </c>
       <c r="AI13" s="25">
         <f t="shared" si="5"/>
-        <v>95.961495535714278</v>
+        <v>95.281305704099822</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
@@ -91972,23 +91910,23 @@
       </c>
       <c r="M14" s="25">
         <f>M4/SUM(M3:M8)*100</f>
-        <v>5.2547298167423477</v>
+        <v>3.0698529411764706</v>
       </c>
       <c r="N14" s="25">
         <f t="shared" ref="N14:Q14" si="8">N4/SUM(N3:N8)*100</f>
-        <v>3.6104910714285712</v>
+        <v>1.8321078431372551</v>
       </c>
       <c r="O14" s="25">
         <f t="shared" si="8"/>
-        <v>2.4017857142857144</v>
+        <v>1.008801247771836</v>
       </c>
       <c r="P14" s="25">
         <f t="shared" si="8"/>
-        <v>2.4017857142857144</v>
+        <v>1.008801247771836</v>
       </c>
       <c r="Q14" s="25">
         <f t="shared" si="8"/>
-        <v>1.5909598214285714</v>
+        <v>0.58545008912655971</v>
       </c>
       <c r="S14" s="25">
         <f>S4/SUM(S3:S8)*100</f>
@@ -92012,43 +91950,43 @@
       </c>
       <c r="Y14" s="25">
         <f>Y4/SUM(Y3:Y8)*100</f>
-        <v>4.0106951871657754</v>
+        <v>4.0214260564396493</v>
       </c>
       <c r="Z14" s="25">
-        <f t="shared" ref="Z14:AC14" si="10">Z4/SUM(Z3:Z8)*100</f>
-        <v>2.2549019607843137</v>
+        <f t="shared" ref="Z14:AB14" si="10">Z4/SUM(Z3:Z8)*100</f>
+        <v>3.0821078431372548</v>
       </c>
       <c r="AA14" s="25">
         <f t="shared" si="10"/>
-        <v>1.1595334702816495</v>
+        <v>1.3743718735305948</v>
       </c>
       <c r="AB14" s="25">
         <f t="shared" si="10"/>
-        <v>1.1413770053475936</v>
+        <v>1.3513814616755793</v>
       </c>
       <c r="AC14" s="25">
         <f>AC4/SUM(AC3:AC8)*100</f>
-        <v>2.1524064171122994</v>
+        <v>0.64393939393939392</v>
       </c>
       <c r="AE14" s="25">
         <f>AE4/SUM(AE3:AE8)*100</f>
-        <v>3.84765625</v>
+        <v>6.2527852049910875</v>
       </c>
       <c r="AF14" s="25">
         <f t="shared" ref="AF14:AI14" si="11">AF4/SUM(AF3:AF8)*100</f>
-        <v>2.0931351139171923</v>
+        <v>1.6945187165775402</v>
       </c>
       <c r="AG14" s="25">
         <f t="shared" si="11"/>
-        <v>0.2574045784440453</v>
+        <v>1.6945281557940943</v>
       </c>
       <c r="AH14" s="25">
         <f t="shared" si="11"/>
-        <v>1.4819718883683031</v>
+        <v>6.121355239578623</v>
       </c>
       <c r="AI14" s="25">
         <f t="shared" si="11"/>
-        <v>1.4614955357142858</v>
+        <v>2.0510249554367204</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
@@ -92098,19 +92036,19 @@
       </c>
       <c r="N15" s="25">
         <f t="shared" ref="N15:Q15" si="14">N5/SUM(N3:N8)*100</f>
-        <v>2.2516741071428572</v>
+        <v>1.7418672014260248</v>
       </c>
       <c r="O15" s="25">
         <f t="shared" si="14"/>
-        <v>1.8850446428571428</v>
+        <v>2.0059046345811051</v>
       </c>
       <c r="P15" s="25">
         <f t="shared" si="14"/>
-        <v>1.8850446428571428</v>
+        <v>2.0053475935828877</v>
       </c>
       <c r="Q15" s="25">
         <f t="shared" si="14"/>
-        <v>0.48828125</v>
+        <v>1.0249554367201426</v>
       </c>
       <c r="S15" s="25">
         <f>S5/SUM(S3:S8)*100</f>
@@ -92137,20 +92075,20 @@
         <v>0</v>
       </c>
       <c r="Z15" s="25">
-        <f t="shared" ref="Z15:AC15" si="16">Z5/SUM(Z3:Z8)*100</f>
-        <v>2.7016488413547237</v>
+        <f t="shared" ref="Z15:AB15" si="16">Z5/SUM(Z3:Z8)*100</f>
+        <v>2.0554812834224596</v>
       </c>
       <c r="AA15" s="25">
         <f t="shared" si="16"/>
-        <v>1.744676275684883</v>
+        <v>1.280329939892475</v>
       </c>
       <c r="AB15" s="25">
         <f t="shared" si="16"/>
-        <v>1.7168003565062386</v>
+        <v>1.2589126559714794</v>
       </c>
       <c r="AC15" s="25">
         <f>AC5/SUM(AC3:AC8)*100</f>
-        <v>0.73807932263814613</v>
+        <v>1.4399509803921569</v>
       </c>
       <c r="AE15" s="25">
         <f>AE5/SUM(AE3:AE8)*100</f>
@@ -92158,19 +92096,19 @@
       </c>
       <c r="AF15" s="25">
         <f t="shared" ref="AF15:AI15" si="17">AF5/SUM(AF3:AF8)*100</f>
-        <v>2.6459970034885587</v>
+        <v>2.4604500891265597</v>
       </c>
       <c r="AG15" s="25">
         <f t="shared" si="17"/>
-        <v>5.7216561186747024</v>
+        <v>2.4599067508174621</v>
       </c>
       <c r="AH15" s="25">
         <f t="shared" si="17"/>
-        <v>1.2114936284828319</v>
+        <v>0.10606999503145811</v>
       </c>
       <c r="AI15" s="25">
         <f t="shared" si="17"/>
-        <v>1.1947544642857144</v>
+        <v>0.68850267379679142</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.2">
@@ -92224,15 +92162,15 @@
       </c>
       <c r="O16" s="25">
         <f t="shared" si="20"/>
-        <v>2.4118303571428572</v>
+        <v>0.55926916221033862</v>
       </c>
       <c r="P16" s="25">
         <f t="shared" si="20"/>
-        <v>2.4112723214285712</v>
+        <v>0.55926916221033862</v>
       </c>
       <c r="Q16" s="25">
         <f t="shared" si="20"/>
-        <v>2.0133928571428572</v>
+        <v>1.3524955436720143</v>
       </c>
       <c r="S16" s="25">
         <f>S6/SUM(S3:S8)*100</f>
@@ -92259,7 +92197,7 @@
         <v>0</v>
       </c>
       <c r="Z16" s="25">
-        <f t="shared" ref="Z16:AC16" si="22">Z6/SUM(Z3:Z8)*100</f>
+        <f t="shared" ref="Z16:AB16" si="22">Z6/SUM(Z3:Z8)*100</f>
         <v>0</v>
       </c>
       <c r="AA16" s="25">
@@ -92268,11 +92206,11 @@
       </c>
       <c r="AB16" s="25">
         <f t="shared" si="22"/>
-        <v>1.5658422459893049</v>
+        <v>1.6722370766488415</v>
       </c>
       <c r="AC16" s="25">
         <f>AC6/SUM(AC3:AC8)*100</f>
-        <v>2.4342691622103385</v>
+        <v>0.82386363636363624</v>
       </c>
       <c r="AE16" s="25">
         <f>AE6/SUM(AE3:AE8)*100</f>
@@ -92292,7 +92230,7 @@
       </c>
       <c r="AI16" s="25">
         <f t="shared" si="23"/>
-        <v>1.3811383928571428</v>
+        <v>0.48963903743315507</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
@@ -92350,11 +92288,11 @@
       </c>
       <c r="P17" s="25">
         <f t="shared" si="26"/>
-        <v>5.5803571428571425E-4</v>
+        <v>5.5704099821746883E-4</v>
       </c>
       <c r="Q17" s="25">
         <f t="shared" si="26"/>
-        <v>1.7064732142857142</v>
+        <v>0.58656417112299464</v>
       </c>
       <c r="S17" s="25">
         <f>S7/SUM(S3:S8)*100</f>
@@ -92381,7 +92319,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="25">
-        <f t="shared" ref="Z17:AC17" si="28">Z7/SUM(Z3:Z8)*100</f>
+        <f t="shared" ref="Z17:AB17" si="28">Z7/SUM(Z3:Z8)*100</f>
         <v>0</v>
       </c>
       <c r="AA17" s="25">
@@ -92394,7 +92332,7 @@
       </c>
       <c r="AC17" s="25">
         <f>AC7/SUM(AC3:AC8)*100</f>
-        <v>5.5704099821746883E-4</v>
+        <v>0.39661319073083778</v>
       </c>
       <c r="AE17" s="25">
         <f>AE7/SUM(AE3:AE8)*100</f>
@@ -92410,11 +92348,11 @@
       </c>
       <c r="AH17" s="25">
         <f t="shared" si="29"/>
-        <v>5.6585410017880988E-4</v>
+        <v>5.5826313174451648E-4</v>
       </c>
       <c r="AI17" s="25">
         <f t="shared" si="29"/>
-        <v>5.5803571428571425E-4</v>
+        <v>1.4889705882352939</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
@@ -92476,7 +92414,7 @@
       </c>
       <c r="Q18" s="25">
         <f t="shared" si="32"/>
-        <v>1.4174107142857142</v>
+        <v>0.5848930481283422</v>
       </c>
       <c r="S18" s="25">
         <f>S8/SUM(S3:S8)*100</f>
@@ -92516,7 +92454,7 @@
       </c>
       <c r="AC18" s="25">
         <f t="shared" si="34"/>
-        <v>5.5704099821746883E-4</v>
+        <v>1.081216577540107</v>
       </c>
       <c r="AE18" s="25">
         <f>AE8/SUM(AE3:AE8)*100</f>
@@ -92536,7 +92474,7 @@
       </c>
       <c r="AI18" s="25">
         <f t="shared" si="35"/>
-        <v>5.5803571428571425E-4</v>
+        <v>5.5704099821746883E-4</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
@@ -92622,7 +92560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72585105-E7AE-AF48-B7CD-88F101E53387}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="95" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
